--- a/tvDataWebApp.xlsx
+++ b/tvDataWebApp.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,11 +473,6 @@
           <t>A&amp;E</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The First 48</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,22 +536,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>05/16/2023</t>
+          <t>05/19/2023</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9:10 AM</t>
+          <t>9:59 AM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FX</t>
+          <t>BETHR</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The Broken Hearts Gallery</t>
+          <t>Morning Glow</t>
         </is>
       </c>
     </row>
@@ -568,22 +563,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>05/22/2023</t>
+          <t>05/16/2023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9:31 AM</t>
+          <t>9:10 AM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>FX</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>First Man</t>
         </is>
       </c>
     </row>
@@ -595,22 +585,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>05/17/2023</t>
+          <t>05/22/2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9:35 AM</t>
+          <t>9:31 AM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>FX</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Long Weekend</t>
         </is>
       </c>
     </row>
@@ -622,22 +607,71 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>05/17/2023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>9:35 AM</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Red Bull</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>05/26/2023</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>10:50 PM</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>FX</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>The Secrets of Hillsong</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Red Bull</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>05/26/2023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9:15 AM</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>TNT</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Charmed</t>
         </is>
       </c>
     </row>
